--- a/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Tnfsf12-Cd163.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.64176871361521</v>
+        <v>4.662869</v>
       </c>
       <c r="H2">
-        <v>4.64176871361521</v>
+        <v>9.325737999999999</v>
       </c>
       <c r="I2">
-        <v>0.1293018877860706</v>
+        <v>0.12780197298571</v>
       </c>
       <c r="J2">
-        <v>0.1293018877860706</v>
+        <v>0.0920600161298102</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.82946285931479</v>
+        <v>4.945352666666667</v>
       </c>
       <c r="N2">
-        <v>4.82946285931479</v>
+        <v>14.836058</v>
       </c>
       <c r="O2">
-        <v>0.4540903751008417</v>
+        <v>0.4553334752996751</v>
       </c>
       <c r="P2">
-        <v>0.4540903751008417</v>
+        <v>0.4643150580045728</v>
       </c>
       <c r="Q2">
-        <v>22.41724960393405</v>
+        <v>23.05953164346733</v>
       </c>
       <c r="R2">
-        <v>22.41724960393405</v>
+        <v>138.357189860804</v>
       </c>
       <c r="S2">
-        <v>0.05871474272602373</v>
+        <v>0.05819251650973854</v>
       </c>
       <c r="T2">
-        <v>0.05871474272602373</v>
+        <v>0.04274485172921473</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.64176871361521</v>
+        <v>4.662869</v>
       </c>
       <c r="H3">
-        <v>4.64176871361521</v>
+        <v>9.325737999999999</v>
       </c>
       <c r="I3">
-        <v>0.1293018877860706</v>
+        <v>0.12780197298571</v>
       </c>
       <c r="J3">
-        <v>0.1293018877860706</v>
+        <v>0.0920600161298102</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.17895222050491</v>
+        <v>5.271479666666667</v>
       </c>
       <c r="N3">
-        <v>5.17895222050491</v>
+        <v>15.814439</v>
       </c>
       <c r="O3">
-        <v>0.486951121676516</v>
+        <v>0.4853609678382707</v>
       </c>
       <c r="P3">
-        <v>0.486951121676516</v>
+        <v>0.494934851400202</v>
       </c>
       <c r="Q3">
-        <v>24.03949838644771</v>
+        <v>24.58021912183033</v>
       </c>
       <c r="R3">
-        <v>24.03949838644771</v>
+        <v>147.481314730982</v>
       </c>
       <c r="S3">
-        <v>0.06296369929231808</v>
+        <v>0.06203008929998475</v>
       </c>
       <c r="T3">
-        <v>0.06296369929231808</v>
+        <v>0.04556371040310781</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,60 +658,60 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.64176871361521</v>
+        <v>4.662869</v>
       </c>
       <c r="H4">
-        <v>4.64176871361521</v>
+        <v>9.325737999999999</v>
       </c>
       <c r="I4">
-        <v>0.1293018877860706</v>
+        <v>0.12780197298571</v>
       </c>
       <c r="J4">
-        <v>0.1293018877860706</v>
+        <v>0.0920600161298102</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.627051171237244</v>
+        <v>0.013841</v>
       </c>
       <c r="N4">
-        <v>0.627051171237244</v>
+        <v>0.041523</v>
       </c>
       <c r="O4">
-        <v>0.05895850322264227</v>
+        <v>0.001274382446797418</v>
       </c>
       <c r="P4">
-        <v>0.05895850322264227</v>
+        <v>0.001299520004136131</v>
       </c>
       <c r="Q4">
-        <v>2.910626508484813</v>
+        <v>0.06453876982899999</v>
       </c>
       <c r="R4">
-        <v>2.910626508484813</v>
+        <v>0.387232618974</v>
       </c>
       <c r="S4">
-        <v>0.007623445767728772</v>
+        <v>0.0001628685910390667</v>
       </c>
       <c r="T4">
-        <v>0.007623445767728772</v>
+        <v>0.0001196338325417832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.21089300525675</v>
+        <v>4.662869</v>
       </c>
       <c r="H5">
-        <v>3.21089300525675</v>
+        <v>9.325737999999999</v>
       </c>
       <c r="I5">
-        <v>0.08944317407306394</v>
+        <v>0.12780197298571</v>
       </c>
       <c r="J5">
-        <v>0.08944317407306394</v>
+        <v>0.0920600161298102</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.82946285931479</v>
+        <v>0.6302734999999999</v>
       </c>
       <c r="N5">
-        <v>4.82946285931479</v>
+        <v>1.260547</v>
       </c>
       <c r="O5">
-        <v>0.4540903751008417</v>
+        <v>0.05803117441525701</v>
       </c>
       <c r="P5">
-        <v>0.4540903751008417</v>
+        <v>0.03945057059108897</v>
       </c>
       <c r="Q5">
-        <v>15.50688851412112</v>
+        <v>2.938882764671499</v>
       </c>
       <c r="R5">
-        <v>15.50688851412112</v>
+        <v>11.755531058686</v>
       </c>
       <c r="S5">
-        <v>0.04061528446504748</v>
+        <v>0.007416498584947704</v>
       </c>
       <c r="T5">
-        <v>0.04061528446504748</v>
+        <v>0.003631820164945866</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,55 +782,55 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.21089300525675</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H6">
-        <v>3.21089300525675</v>
+        <v>10.060577</v>
       </c>
       <c r="I6">
-        <v>0.08944317407306394</v>
+        <v>0.09191491261243208</v>
       </c>
       <c r="J6">
-        <v>0.08944317407306394</v>
+        <v>0.09931405760007386</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.17895222050491</v>
+        <v>4.945352666666667</v>
       </c>
       <c r="N6">
-        <v>5.17895222050491</v>
+        <v>14.836058</v>
       </c>
       <c r="O6">
-        <v>0.486951121676516</v>
+        <v>0.4553334752996751</v>
       </c>
       <c r="P6">
-        <v>0.486951121676516</v>
+        <v>0.4643150580045728</v>
       </c>
       <c r="Q6">
-        <v>16.62906145937813</v>
+        <v>16.58436709838511</v>
       </c>
       <c r="R6">
-        <v>16.62906145937813</v>
+        <v>149.259303885466</v>
       </c>
       <c r="S6">
-        <v>0.04355445394118636</v>
+        <v>0.04185193659168463</v>
       </c>
       <c r="T6">
-        <v>0.04355445394118636</v>
+        <v>0.04611301241524778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,60 +844,60 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.21089300525675</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H7">
-        <v>3.21089300525675</v>
+        <v>10.060577</v>
       </c>
       <c r="I7">
-        <v>0.08944317407306394</v>
+        <v>0.09191491261243208</v>
       </c>
       <c r="J7">
-        <v>0.08944317407306394</v>
+        <v>0.09931405760007386</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.627051171237244</v>
+        <v>5.271479666666667</v>
       </c>
       <c r="N7">
-        <v>0.627051171237244</v>
+        <v>15.814439</v>
       </c>
       <c r="O7">
-        <v>0.05895850322264227</v>
+        <v>0.4853609678382707</v>
       </c>
       <c r="P7">
-        <v>0.05895850322264227</v>
+        <v>0.494934851400202</v>
       </c>
       <c r="Q7">
-        <v>2.013394219663719</v>
+        <v>17.67804236347811</v>
       </c>
       <c r="R7">
-        <v>2.013394219663719</v>
+        <v>159.102381271303</v>
       </c>
       <c r="S7">
-        <v>0.005273435666830094</v>
+        <v>0.04461191094434011</v>
       </c>
       <c r="T7">
-        <v>0.005273435666830094</v>
+        <v>0.04915398834024366</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,60 +906,60 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.7761123108893</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H8">
-        <v>12.7761123108893</v>
+        <v>10.060577</v>
       </c>
       <c r="I8">
-        <v>0.3558935272925767</v>
+        <v>0.09191491261243208</v>
       </c>
       <c r="J8">
-        <v>0.3558935272925767</v>
+        <v>0.09931405760007386</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>4.82946285931479</v>
+        <v>0.013841</v>
       </c>
       <c r="N8">
-        <v>4.82946285931479</v>
+        <v>0.041523</v>
       </c>
       <c r="O8">
-        <v>0.4540903751008417</v>
+        <v>0.001274382446797418</v>
       </c>
       <c r="P8">
-        <v>0.4540903751008417</v>
+        <v>0.001299520004136131</v>
       </c>
       <c r="Q8">
-        <v>61.70175989187433</v>
+        <v>0.04641614875233333</v>
       </c>
       <c r="R8">
-        <v>61.70175989187433</v>
+        <v>0.417745338771</v>
       </c>
       <c r="S8">
-        <v>0.1616078253042478</v>
+        <v>0.000117134751232202</v>
       </c>
       <c r="T8">
-        <v>0.1616078253042478</v>
+        <v>0.0001290606045432239</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.7761123108893</v>
+        <v>3.353525666666667</v>
       </c>
       <c r="H9">
-        <v>12.7761123108893</v>
+        <v>10.060577</v>
       </c>
       <c r="I9">
-        <v>0.3558935272925767</v>
+        <v>0.09191491261243208</v>
       </c>
       <c r="J9">
-        <v>0.3558935272925767</v>
+        <v>0.09931405760007386</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.17895222050491</v>
+        <v>0.6302734999999999</v>
       </c>
       <c r="N9">
-        <v>5.17895222050491</v>
+        <v>1.260547</v>
       </c>
       <c r="O9">
-        <v>0.486951121676516</v>
+        <v>0.05803117441525701</v>
       </c>
       <c r="P9">
-        <v>0.486951121676516</v>
+        <v>0.03945057059108897</v>
       </c>
       <c r="Q9">
-        <v>66.16687522190026</v>
+        <v>2.113638359269833</v>
       </c>
       <c r="R9">
-        <v>66.16687522190026</v>
+        <v>12.681830155619</v>
       </c>
       <c r="S9">
-        <v>0.173302752312532</v>
+        <v>0.005333930325175153</v>
       </c>
       <c r="T9">
-        <v>0.173302752312532</v>
+        <v>0.00391799624003919</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,122 +1030,122 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.7761123108893</v>
+        <v>13.115279</v>
       </c>
       <c r="H10">
-        <v>12.7761123108893</v>
+        <v>39.345837</v>
       </c>
       <c r="I10">
-        <v>0.3558935272925767</v>
+        <v>0.3594693594132818</v>
       </c>
       <c r="J10">
-        <v>0.3558935272925767</v>
+        <v>0.3884066214235145</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.627051171237244</v>
+        <v>4.945352666666667</v>
       </c>
       <c r="N10">
-        <v>0.627051171237244</v>
+        <v>14.836058</v>
       </c>
       <c r="O10">
-        <v>0.05895850322264227</v>
+        <v>0.4553334752996751</v>
       </c>
       <c r="P10">
-        <v>0.05895850322264227</v>
+        <v>0.4643150580045728</v>
       </c>
       <c r="Q10">
-        <v>8.011276188401707</v>
+        <v>64.85967997672732</v>
       </c>
       <c r="R10">
-        <v>8.011276188401707</v>
+        <v>583.7371197905459</v>
       </c>
       <c r="S10">
-        <v>0.02098294967579691</v>
+        <v>0.1636784326853976</v>
       </c>
       <c r="T10">
-        <v>0.02098294967579691</v>
+        <v>0.1803430429556193</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>7.78240345931708</v>
+        <v>13.115279</v>
       </c>
       <c r="H11">
-        <v>7.78240345931708</v>
+        <v>39.345837</v>
       </c>
       <c r="I11">
-        <v>0.2167879359975286</v>
+        <v>0.3594693594132818</v>
       </c>
       <c r="J11">
-        <v>0.2167879359975286</v>
+        <v>0.3884066214235145</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.82946285931479</v>
+        <v>5.271479666666667</v>
       </c>
       <c r="N11">
-        <v>4.82946285931479</v>
+        <v>15.814439</v>
       </c>
       <c r="O11">
-        <v>0.4540903751008417</v>
+        <v>0.4853609678382707</v>
       </c>
       <c r="P11">
-        <v>0.4540903751008417</v>
+        <v>0.494934851400202</v>
       </c>
       <c r="Q11">
-        <v>37.58482846297478</v>
+        <v>69.13692657116033</v>
       </c>
       <c r="R11">
-        <v>37.58482846297478</v>
+        <v>622.2323391404429</v>
       </c>
       <c r="S11">
-        <v>0.09844131517445501</v>
+        <v>0.1744723961930336</v>
       </c>
       <c r="T11">
-        <v>0.09844131517445501</v>
+        <v>0.1922359734571017</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7.78240345931708</v>
+        <v>13.115279</v>
       </c>
       <c r="H12">
-        <v>7.78240345931708</v>
+        <v>39.345837</v>
       </c>
       <c r="I12">
-        <v>0.2167879359975286</v>
+        <v>0.3594693594132818</v>
       </c>
       <c r="J12">
-        <v>0.2167879359975286</v>
+        <v>0.3884066214235145</v>
       </c>
       <c r="K12">
         <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>5.17895222050491</v>
+        <v>0.013841</v>
       </c>
       <c r="N12">
-        <v>5.17895222050491</v>
+        <v>0.041523</v>
       </c>
       <c r="O12">
-        <v>0.486951121676516</v>
+        <v>0.001274382446797418</v>
       </c>
       <c r="P12">
-        <v>0.486951121676516</v>
+        <v>0.001299520004136131</v>
       </c>
       <c r="Q12">
-        <v>40.30469567649529</v>
+        <v>0.181528576639</v>
       </c>
       <c r="R12">
-        <v>40.30469567649529</v>
+        <v>1.633757189751</v>
       </c>
       <c r="S12">
-        <v>0.1055651285999333</v>
+        <v>0.0004581014417977985</v>
       </c>
       <c r="T12">
-        <v>0.1055651285999333</v>
+        <v>0.000504742174278786</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7.78240345931708</v>
+        <v>13.115279</v>
       </c>
       <c r="H13">
-        <v>7.78240345931708</v>
+        <v>39.345837</v>
       </c>
       <c r="I13">
-        <v>0.2167879359975286</v>
+        <v>0.3594693594132818</v>
       </c>
       <c r="J13">
-        <v>0.2167879359975286</v>
+        <v>0.3884066214235145</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.627051171237244</v>
+        <v>0.6302734999999999</v>
       </c>
       <c r="N13">
-        <v>0.627051171237244</v>
+        <v>1.260547</v>
       </c>
       <c r="O13">
-        <v>0.05895850322264227</v>
+        <v>0.05803117441525701</v>
       </c>
       <c r="P13">
-        <v>0.05895850322264227</v>
+        <v>0.03945057059108897</v>
       </c>
       <c r="Q13">
-        <v>4.879965204205554</v>
+        <v>8.266212798806498</v>
       </c>
       <c r="R13">
-        <v>4.879965204205554</v>
+        <v>49.59727679283899</v>
       </c>
       <c r="S13">
-        <v>0.01278149222314025</v>
+        <v>0.02086042909305287</v>
       </c>
       <c r="T13">
-        <v>0.01278149222314025</v>
+        <v>0.01532286283651473</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.02549174039221</v>
+        <v>7.825948666666666</v>
       </c>
       <c r="H14">
-        <v>4.02549174039221</v>
+        <v>23.477846</v>
       </c>
       <c r="I14">
-        <v>0.1121347730603658</v>
+        <v>0.2144970575164961</v>
       </c>
       <c r="J14">
-        <v>0.1121347730603658</v>
+        <v>0.2317640578636457</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.82946285931479</v>
+        <v>4.945352666666667</v>
       </c>
       <c r="N14">
-        <v>4.82946285931479</v>
+        <v>14.836058</v>
       </c>
       <c r="O14">
-        <v>0.4540903751008417</v>
+        <v>0.4553334752996751</v>
       </c>
       <c r="P14">
-        <v>0.4540903751008417</v>
+        <v>0.4643150580045728</v>
       </c>
       <c r="Q14">
-        <v>19.44096285070264</v>
+        <v>38.70207610789644</v>
       </c>
       <c r="R14">
-        <v>19.44096285070264</v>
+        <v>348.318684971068</v>
       </c>
       <c r="S14">
-        <v>0.05091932116082926</v>
+        <v>0.09766769064054046</v>
       </c>
       <c r="T14">
-        <v>0.05091932116082926</v>
+        <v>0.1076115419703338</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,181 +1343,181 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.02549174039221</v>
+        <v>7.825948666666666</v>
       </c>
       <c r="H15">
-        <v>4.02549174039221</v>
+        <v>23.477846</v>
       </c>
       <c r="I15">
-        <v>0.1121347730603658</v>
+        <v>0.2144970575164961</v>
       </c>
       <c r="J15">
-        <v>0.1121347730603658</v>
+        <v>0.2317640578636457</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>5.17895222050491</v>
+        <v>5.271479666666667</v>
       </c>
       <c r="N15">
-        <v>5.17895222050491</v>
+        <v>15.814439</v>
       </c>
       <c r="O15">
-        <v>0.486951121676516</v>
+        <v>0.4853609678382707</v>
       </c>
       <c r="P15">
-        <v>0.486951121676516</v>
+        <v>0.494934851400202</v>
       </c>
       <c r="Q15">
-        <v>20.84782938752841</v>
+        <v>41.25432926871044</v>
       </c>
       <c r="R15">
-        <v>20.84782938752841</v>
+        <v>371.288963418394</v>
       </c>
       <c r="S15">
-        <v>0.05460415352068669</v>
+        <v>0.1041084994346678</v>
       </c>
       <c r="T15">
-        <v>0.05460415352068669</v>
+        <v>0.1147081095386513</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.02549174039221</v>
+        <v>7.825948666666666</v>
       </c>
       <c r="H16">
-        <v>4.02549174039221</v>
+        <v>23.477846</v>
       </c>
       <c r="I16">
-        <v>0.1121347730603658</v>
+        <v>0.2144970575164961</v>
       </c>
       <c r="J16">
-        <v>0.1121347730603658</v>
+        <v>0.2317640578636457</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.627051171237244</v>
+        <v>0.013841</v>
       </c>
       <c r="N16">
-        <v>0.627051171237244</v>
+        <v>0.041523</v>
       </c>
       <c r="O16">
-        <v>0.05895850322264227</v>
+        <v>0.001274382446797418</v>
       </c>
       <c r="P16">
-        <v>0.05895850322264227</v>
+        <v>0.001299520004136131</v>
       </c>
       <c r="Q16">
-        <v>2.524189310618787</v>
+        <v>0.1083189554953333</v>
       </c>
       <c r="R16">
-        <v>2.524189310618787</v>
+        <v>0.9748705994579999</v>
       </c>
       <c r="S16">
-        <v>0.006611298378849836</v>
+        <v>0.0002733512849887188</v>
       </c>
       <c r="T16">
-        <v>0.006611298378849836</v>
+        <v>0.0003011820294335713</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.46202330388979</v>
+        <v>7.825948666666666</v>
       </c>
       <c r="H17">
-        <v>3.46202330388979</v>
+        <v>23.477846</v>
       </c>
       <c r="I17">
-        <v>0.09643870179039422</v>
+        <v>0.2144970575164961</v>
       </c>
       <c r="J17">
-        <v>0.09643870179039422</v>
+        <v>0.2317640578636457</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.82946285931479</v>
+        <v>0.6302734999999999</v>
       </c>
       <c r="N17">
-        <v>4.82946285931479</v>
+        <v>1.260547</v>
       </c>
       <c r="O17">
-        <v>0.4540903751008417</v>
+        <v>0.05803117441525701</v>
       </c>
       <c r="P17">
-        <v>0.4540903751008417</v>
+        <v>0.03945057059108897</v>
       </c>
       <c r="Q17">
-        <v>16.71971296421802</v>
+        <v>4.932488056960333</v>
       </c>
       <c r="R17">
-        <v>16.71971296421802</v>
+        <v>29.594928341762</v>
       </c>
       <c r="S17">
-        <v>0.04379188627023832</v>
+        <v>0.0124475161562992</v>
       </c>
       <c r="T17">
-        <v>0.04379188627023832</v>
+        <v>0.009143224325226984</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,117 +1526,489 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.46202330388979</v>
+        <v>4.035661333333334</v>
       </c>
       <c r="H18">
-        <v>3.46202330388979</v>
+        <v>12.106984</v>
       </c>
       <c r="I18">
-        <v>0.09643870179039422</v>
+        <v>0.1106111882410038</v>
       </c>
       <c r="J18">
-        <v>0.09643870179039422</v>
+        <v>0.1195153823025431</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.17895222050491</v>
+        <v>4.945352666666667</v>
       </c>
       <c r="N18">
-        <v>5.17895222050491</v>
+        <v>14.836058</v>
       </c>
       <c r="O18">
-        <v>0.486951121676516</v>
+        <v>0.4553334752996751</v>
       </c>
       <c r="P18">
-        <v>0.486951121676516</v>
+        <v>0.4643150580045728</v>
       </c>
       <c r="Q18">
-        <v>17.92965327711977</v>
+        <v>19.95776853656356</v>
       </c>
       <c r="R18">
-        <v>17.92965327711977</v>
+        <v>179.619916829072</v>
       </c>
       <c r="S18">
-        <v>0.0469609340098595</v>
+        <v>0.05036497674880282</v>
       </c>
       <c r="T18">
-        <v>0.0469609340098595</v>
+        <v>0.05549279166624401</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>4.035661333333334</v>
+      </c>
+      <c r="H19">
+        <v>12.106984</v>
+      </c>
+      <c r="I19">
+        <v>0.1106111882410038</v>
+      </c>
+      <c r="J19">
+        <v>0.1195153823025431</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>5.271479666666667</v>
+      </c>
+      <c r="N19">
+        <v>15.814439</v>
+      </c>
+      <c r="O19">
+        <v>0.4853609678382707</v>
+      </c>
+      <c r="P19">
+        <v>0.494934851400202</v>
+      </c>
+      <c r="Q19">
+        <v>21.27390666021956</v>
+      </c>
+      <c r="R19">
+        <v>191.465159941976</v>
+      </c>
+      <c r="S19">
+        <v>0.05368635337839476</v>
+      </c>
+      <c r="T19">
+        <v>0.05915232797994753</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>4.035661333333334</v>
+      </c>
+      <c r="H20">
+        <v>12.106984</v>
+      </c>
+      <c r="I20">
+        <v>0.1106111882410038</v>
+      </c>
+      <c r="J20">
+        <v>0.1195153823025431</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M20">
+        <v>0.013841</v>
+      </c>
+      <c r="N20">
+        <v>0.041523</v>
+      </c>
+      <c r="O20">
+        <v>0.001274382446797418</v>
+      </c>
+      <c r="P20">
+        <v>0.001299520004136131</v>
+      </c>
+      <c r="Q20">
+        <v>0.05585758851466666</v>
+      </c>
+      <c r="R20">
+        <v>0.502718296632</v>
+      </c>
+      <c r="S20">
+        <v>0.0001409609567137402</v>
+      </c>
+      <c r="T20">
+        <v>0.0001553126301041321</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>4.035661333333334</v>
+      </c>
+      <c r="H21">
+        <v>12.106984</v>
+      </c>
+      <c r="I21">
+        <v>0.1106111882410038</v>
+      </c>
+      <c r="J21">
+        <v>0.1195153823025431</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.6302734999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.260547</v>
+      </c>
+      <c r="O21">
+        <v>0.05803117441525701</v>
+      </c>
+      <c r="P21">
+        <v>0.03945057059108897</v>
+      </c>
+      <c r="Q21">
+        <v>2.543570393374667</v>
+      </c>
+      <c r="R21">
+        <v>15.261422360248</v>
+      </c>
+      <c r="S21">
+        <v>0.006418897157092518</v>
+      </c>
+      <c r="T21">
+        <v>0.004714950026247463</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>3.46202330388979</v>
-      </c>
-      <c r="H19">
-        <v>3.46202330388979</v>
-      </c>
-      <c r="I19">
-        <v>0.09643870179039422</v>
-      </c>
-      <c r="J19">
-        <v>0.09643870179039422</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>0.627051171237244</v>
-      </c>
-      <c r="N19">
-        <v>0.627051171237244</v>
-      </c>
-      <c r="O19">
-        <v>0.05895850322264227</v>
-      </c>
-      <c r="P19">
-        <v>0.05895850322264227</v>
-      </c>
-      <c r="Q19">
-        <v>2.170865767554726</v>
-      </c>
-      <c r="R19">
-        <v>2.170865767554726</v>
-      </c>
-      <c r="S19">
-        <v>0.005685881510296395</v>
-      </c>
-      <c r="T19">
-        <v>0.005685881510296395</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>3.491826</v>
+      </c>
+      <c r="H22">
+        <v>6.983651999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.09570550923107637</v>
+      </c>
+      <c r="J22">
+        <v>0.06893986468041255</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>4.945352666666667</v>
+      </c>
+      <c r="N22">
+        <v>14.836058</v>
+      </c>
+      <c r="O22">
+        <v>0.4553334752996751</v>
+      </c>
+      <c r="P22">
+        <v>0.4643150580045728</v>
+      </c>
+      <c r="Q22">
+        <v>17.268311020636</v>
+      </c>
+      <c r="R22">
+        <v>103.609866123816</v>
+      </c>
+      <c r="S22">
+        <v>0.04357792212351114</v>
+      </c>
+      <c r="T22">
+        <v>0.03200981726791315</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>3.491826</v>
+      </c>
+      <c r="H23">
+        <v>6.983651999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.09570550923107637</v>
+      </c>
+      <c r="J23">
+        <v>0.06893986468041255</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>5.271479666666667</v>
+      </c>
+      <c r="N23">
+        <v>15.814439</v>
+      </c>
+      <c r="O23">
+        <v>0.4853609678382707</v>
+      </c>
+      <c r="P23">
+        <v>0.494934851400202</v>
+      </c>
+      <c r="Q23">
+        <v>18.407089758538</v>
+      </c>
+      <c r="R23">
+        <v>110.442538551228</v>
+      </c>
+      <c r="S23">
+        <v>0.04645171858784978</v>
+      </c>
+      <c r="T23">
+        <v>0.03412074168115002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3.491826</v>
+      </c>
+      <c r="H24">
+        <v>6.983651999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.09570550923107637</v>
+      </c>
+      <c r="J24">
+        <v>0.06893986468041255</v>
+      </c>
+      <c r="K24">
+        <v>1</v>
+      </c>
+      <c r="L24">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M24">
+        <v>0.013841</v>
+      </c>
+      <c r="N24">
+        <v>0.041523</v>
+      </c>
+      <c r="O24">
+        <v>0.001274382446797418</v>
+      </c>
+      <c r="P24">
+        <v>0.001299520004136131</v>
+      </c>
+      <c r="Q24">
+        <v>0.04833036366599999</v>
+      </c>
+      <c r="R24">
+        <v>0.289982181996</v>
+      </c>
+      <c r="S24">
+        <v>0.000121965421025892</v>
+      </c>
+      <c r="T24">
+        <v>8.9588733234634E-05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.491826</v>
+      </c>
+      <c r="H25">
+        <v>6.983651999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.09570550923107637</v>
+      </c>
+      <c r="J25">
+        <v>0.06893986468041255</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.6302734999999999</v>
+      </c>
+      <c r="N25">
+        <v>1.260547</v>
+      </c>
+      <c r="O25">
+        <v>0.05803117441525701</v>
+      </c>
+      <c r="P25">
+        <v>0.03945057059108897</v>
+      </c>
+      <c r="Q25">
+        <v>2.200805394411</v>
+      </c>
+      <c r="R25">
+        <v>8.803221577643999</v>
+      </c>
+      <c r="S25">
+        <v>0.005553903098689583</v>
+      </c>
+      <c r="T25">
+        <v>0.002719716998114736</v>
       </c>
     </row>
   </sheetData>
